--- a/class_examples/pandas_trees/trees_lifespan.xlsx
+++ b/class_examples/pandas_trees/trees_lifespan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanclipperton/Library/CloudStorage/Box-Box/Teaching/30111/macs30111/class_examples/pandas_trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92115CFC-6EE3-954E-B0B9-D0CC24576AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53D99BE-C46D-6645-BFF4-B90DCA71BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="25940" windowHeight="15340" xr2:uid="{59E476AD-EDA7-DC49-A493-B4E2AD6ACF83}"/>
+    <workbookView xWindow="100" yWindow="780" windowWidth="25940" windowHeight="15340" xr2:uid="{59E476AD-EDA7-DC49-A493-B4E2AD6ACF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,12 +473,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,17 +814,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FD3941-EDD7-8A45-A1B3-F551C15D0222}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="324" zoomScaleNormal="324" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
